--- a/zad1/MIASI-1.xlsx
+++ b/zad1/MIASI-1.xlsx
@@ -531,16 +531,79 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1790424384"/>
-        <c:axId val="1790434176"/>
+        <c:axId val="-1543015376"/>
+        <c:axId val="-1543026256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1790424384"/>
+        <c:axId val="-1543015376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49806824146981626"/>
+              <c:y val="0.77277704870224551"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -578,7 +641,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1790434176"/>
+        <c:crossAx val="-1543026256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -586,7 +649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1790434176"/>
+        <c:axId val="-1543026256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,6 +669,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Pk(t)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -637,7 +756,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1790424384"/>
+        <c:crossAx val="-1543015376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1105,11 +1224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1790427648"/>
-        <c:axId val="1790435808"/>
+        <c:axId val="-1543012656"/>
+        <c:axId val="-1543012112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1790427648"/>
+        <c:axId val="-1543012656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,6 +1248,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>t</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1166,12 +1341,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1790435808"/>
+        <c:crossAx val="-1543012112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1790435808"/>
+        <c:axId val="-1543012112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,6 +1366,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>F(t)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1228,7 +1459,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1790427648"/>
+        <c:crossAx val="-1543012656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2739,7 +2970,7 @@
   <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
